--- a/excel/subjective/company-subject-difficulty_level-testset.xlsx
+++ b/excel/subjective/company-subject-difficulty_level-testset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>question</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>study_solution</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,7 +401,7 @@
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -417,8 +420,11 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -435,6 +441,9 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
